--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -61,23 +61,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2018.05.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30:00
+13:30:00
+21:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30:00
+18:00:00
+24:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">User Stories &amp; UI Design
-Supplier management
-Advanced Settings
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">09:30:00
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30:00
+Updates to User mgt, User role mgt, User group mgt;
+Site Management;
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,6 +280,30 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,30 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +629,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,58 +644,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -700,157 +706,157 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -859,10 +865,10 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
@@ -870,21 +876,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,28 @@
     <t xml:space="preserve">User Stories &amp; UI Design
 Updates to User mgt, User role mgt, User group mgt;
 Site Management;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30:00
+17:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UI Design
+Site Management;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30:00
+13:30:00
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,12 +281,6 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +299,24 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,24 +336,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +645,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,37 +660,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -696,201 +712,213 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,6 +62,44 @@
   </si>
   <si>
     <t>2018.05.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UI Design
+Site Management;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Visit and requirements clarification (CHJ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30:00
+13:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+17:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,32 +117,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">User Stories &amp; UI Design
+    <t>User Stories &amp; UI Design
 Updates to User mgt, User role mgt, User group mgt;
-Site Management;
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30:00
-17:30:00
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">User Stories &amp; UI Design
-Site Management;
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10:30:00
-13:30:00
-</t>
+Site Management;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -299,6 +314,27 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,27 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +660,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,90 +675,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>10.5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -752,7 +779,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -761,7 +788,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="11"/>
@@ -772,7 +799,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -781,7 +808,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -790,7 +817,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -799,7 +826,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -808,7 +835,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -819,7 +846,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -828,7 +855,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -837,7 +864,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -846,7 +873,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -855,7 +882,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -866,7 +893,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -875,7 +902,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -884,7 +911,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -893,7 +920,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -904,21 +931,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>16.5</v>
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +120,56 @@
     <t>User Stories &amp; UI Design
 Updates to User mgt, User role mgt, User group mgt;
 Site Management;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00:00
+12:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00:00
+14:30
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UX Design
+Weekly Meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UX Design
+update to Task management
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:00
+17:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00:00
+13:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -314,6 +364,24 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,24 +401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,7 +710,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,37 +725,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -728,7 +778,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -749,7 +799,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -769,37 +819,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -808,7 +894,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -817,7 +903,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -826,7 +912,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -835,7 +921,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -846,7 +932,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -855,7 +941,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -864,7 +950,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -873,7 +959,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -882,7 +968,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -893,7 +979,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -902,7 +988,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -911,7 +997,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -920,7 +1006,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -931,21 +1017,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>29.5</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,6 +170,29 @@
   <si>
     <t>09:00:00
 13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00:00
+13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UX Design
+update to Task management
+US&amp;UX design for Activity
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UX Design
+update to Task management
+US&amp;UX design for Activity
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -709,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -878,20 +901,32 @@
         <v>7.5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
@@ -1017,7 +1052,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>44</v>
+        <v>51.5</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -192,6 +192,7 @@
     <t xml:space="preserve">User Stories &amp; UX Design
 update to Task management
 US&amp;UX design for Activity
+US&amp;UX design for Gate Review
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,6 +388,27 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -403,27 +425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,37 +749,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -801,7 +802,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -822,7 +823,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -843,7 +844,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -864,7 +865,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -885,7 +886,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -907,8 +908,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -929,7 +930,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -938,7 +939,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -947,7 +948,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -956,7 +957,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -967,7 +968,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -976,7 +977,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -985,7 +986,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -994,7 +995,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1003,7 +1004,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1014,7 +1015,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1023,7 +1024,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1032,7 +1033,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1041,7 +1042,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1057,16 +1058,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,6 +193,22 @@
 update to Task management
 US&amp;UX design for Activity
 US&amp;UX design for Gate Review
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00:00
+13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UX Design
+US&amp;UX design for Gate Review
+Weekly Meeting
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -388,6 +404,24 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,24 +441,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,37 +765,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -802,7 +818,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -823,7 +839,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -844,7 +860,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -865,7 +881,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -886,7 +902,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -909,7 +925,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -929,17 +945,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -948,7 +976,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -957,7 +985,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -968,7 +996,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -977,7 +1005,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -986,7 +1014,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -995,7 +1023,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1004,7 +1032,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1015,7 +1043,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1024,7 +1052,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1033,7 +1061,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1042,7 +1070,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1053,21 +1081,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>51.5</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,11 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>09:00:00
-13:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.06.06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,6 +205,25 @@
 US&amp;UX design for Gate Review
 Weekly Meeting
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00:00
+14:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:00
+16:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:00
+18:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,6 +418,27 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,27 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,37 +779,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -818,7 +832,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -839,7 +853,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -860,7 +874,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -881,7 +895,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -902,7 +916,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -925,7 +939,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -946,37 +960,49 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -985,7 +1011,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -996,7 +1022,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1005,7 +1031,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1014,7 +1040,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1023,7 +1049,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1032,7 +1058,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1043,7 +1069,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1052,7 +1078,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1061,7 +1087,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1070,7 +1096,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1081,21 +1107,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>59</v>
+        <v>65.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,6 +224,12 @@
   <si>
     <t>12:00:00
 18:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UX Design
+US&amp;UX design for Gate Review
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -418,6 +424,24 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,24 +461,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -779,37 +785,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -832,7 +838,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -853,7 +859,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -874,7 +880,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -895,7 +901,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -916,7 +922,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -939,7 +945,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -960,7 +966,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -981,7 +987,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -995,14 +1001,14 @@
         <v>8.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1011,7 +1017,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1022,7 +1028,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1031,7 +1037,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1040,7 +1046,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1049,7 +1055,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1058,7 +1064,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1069,7 +1075,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1078,7 +1084,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1087,7 +1093,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1096,7 +1102,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1112,16 +1118,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -229,6 +229,17 @@
   <si>
     <t xml:space="preserve">User Stories &amp; UX Design
 US&amp;UX design for Gate Review
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UX Design
+US&amp;UX design for User Account
+US&amp;UX update for Project management
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -424,6 +435,27 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,27 +472,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,7 +781,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,37 +796,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -838,7 +849,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -859,7 +870,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -880,7 +891,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -901,7 +912,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -922,7 +933,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -945,7 +956,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -966,7 +977,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -987,7 +998,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1019,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1017,7 +1028,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1027,17 +1038,29 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1046,7 +1069,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1055,7 +1078,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1064,7 +1087,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1075,7 +1098,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1084,7 +1107,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1093,7 +1116,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1102,7 +1125,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1113,21 +1136,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>65.5</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,6 +241,15 @@
 US&amp;UX design for User Account
 US&amp;UX update for Project management
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UX Design
+US&amp;UX update for Gate Review</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -435,6 +444,24 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,24 +481,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,7 +790,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,37 +805,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -849,7 +858,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -870,7 +879,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -891,7 +900,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -912,7 +921,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -933,7 +942,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -956,7 +965,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -977,7 +986,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -998,7 +1007,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1019,7 +1028,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1028,7 +1037,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1039,7 +1048,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1069,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1069,7 +1078,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1077,17 +1086,29 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1098,7 +1119,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1107,7 +1128,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1116,7 +1137,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1125,7 +1146,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1136,21 +1157,21 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <f>SUM(E3:E22)</f>
-        <v>74</v>
+        <v>82.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,6 +250,37 @@
   <si>
     <t>User Stories &amp; UX Design
 US&amp;UX update for Gate Review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UX Design
+E-APQP Proposal for CHJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presentation of CHJ proposal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:00
+16:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,6 +475,27 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,27 +512,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,37 +836,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -858,7 +889,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -879,7 +910,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -900,7 +931,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -921,7 +952,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -942,7 +973,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -965,7 +996,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -986,7 +1017,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1007,7 +1038,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1028,7 +1059,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1037,7 +1068,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1048,7 +1079,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1100,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1078,7 +1109,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1087,7 +1118,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1139,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1118,26 +1149,50 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1146,7 +1201,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1155,23 +1210,71 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E23">
-        <f>SUM(E3:E22)</f>
-        <v>82.5</v>
+      <c r="A23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <f>SUM(E3:E27)</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -271,16 +271,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Presentation of CHJ proposal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Weekly 5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12:00:00
 16:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visit to CHJ
+Proposal presentation
+Question answering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00:00
+14:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+17:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UX Design
+Queries Clarification
+Weekly Meeting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,6 +497,24 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,24 +534,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,7 +843,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,37 +858,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -889,7 +911,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -910,7 +932,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -931,7 +953,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -952,7 +974,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -973,7 +995,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -996,7 +1018,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1017,7 +1039,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1038,7 +1060,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1059,7 +1081,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1068,7 +1090,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1079,7 +1101,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1100,7 +1122,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1109,7 +1131,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1118,7 +1140,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1139,7 +1161,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1150,7 +1172,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2">
         <v>6.5</v>
@@ -1170,8 +1192,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1179,20 +1201,20 @@
         <v>51</v>
       </c>
       <c r="D20" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E20" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1200,18 +1222,30 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
-        <v>53</v>
+      <c r="A23" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1221,7 +1255,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1230,7 +1264,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1239,7 +1273,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1248,7 +1282,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1259,22 +1293,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>98</v>
+        <v>105.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -303,6 +303,28 @@
     <t>US&amp;UX Design
 Queries Clarification
 Weekly Meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30:00
+14:00:00
+21:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+18:30:00
+24:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">US&amp;UX Design (System Integration,Report)
+Queries Clarification
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,6 +531,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,34 +880,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -1254,14 +1276,26 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
@@ -1293,7 +1327,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>105.5</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -325,6 +325,22 @@
     <t xml:space="preserve">US&amp;UX Design (System Integration,Report)
 Queries Clarification
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UX Design (Report,Risk, Security)
+Queries Clarification
+Weekly meeting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,6 +535,33 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,33 +572,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -865,7 +881,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,37 +896,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -933,7 +949,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -954,7 +970,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -975,7 +991,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1033,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1040,7 +1056,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1077,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1082,7 +1098,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1103,7 +1119,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1112,7 +1128,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1123,7 +1139,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1144,7 +1160,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1153,7 +1169,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1162,7 +1178,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1183,7 +1199,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1194,7 +1210,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1231,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1236,7 +1252,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1245,7 +1261,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1266,7 +1282,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="11"/>
@@ -1277,7 +1293,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
@@ -1297,17 +1313,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1316,7 +1344,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1327,22 +1355,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>116</v>
+        <v>119.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -328,17 +328,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10:00:00
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30:00
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US&amp;UX Design (Report,Risk, Security)
+    <t>10:00:00
+15:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30:00
+18:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UX Design (Report,Risk, None-functional requirement)
 Queries Clarification
 Weekly meeting</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -535,6 +535,18 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,18 +572,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,7 +881,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H27" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -896,37 +896,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -949,7 +949,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1056,7 +1056,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1128,7 +1128,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1139,7 +1139,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1169,7 +1169,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1178,7 +1178,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1210,7 +1210,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1261,7 +1261,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="11"/>
@@ -1293,7 +1293,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
@@ -1313,8 +1313,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+    <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
       <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="2">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>65</v>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1344,7 +1344,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1355,22 +1355,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>119.5</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -341,6 +341,25 @@
     <t>US&amp;UX Design (Report,Risk, None-functional requirement)
 Queries Clarification
 Weekly meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00:00
+14:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30:00
+18:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UX Design (Report,Risk, None-functional requirement)
+Customer Meeting(Intergration with ERP(Digiwin) discussion for Chinasol )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H27" sqref="H26:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1334,14 +1353,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
@@ -1355,7 +1386,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>123</v>
+        <v>130.5</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -360,6 +360,10 @@
   <si>
     <t>US&amp;UX Design (Report,Risk, None-functional requirement)
 Customer Meeting(Intergration with ERP(Digiwin) discussion for Chinasol )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,6 +558,33 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,33 +595,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -899,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,37 +919,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -968,7 +972,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -989,7 +993,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1014,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1035,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1056,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1075,7 +1079,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1100,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1117,7 +1121,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1138,7 +1142,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1147,7 +1151,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -1158,7 +1162,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1179,7 +1183,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1188,7 +1192,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1197,7 +1201,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1218,7 +1222,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -1229,7 +1233,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1254,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1271,7 +1275,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1280,7 +1284,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1305,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="11"/>
@@ -1312,7 +1316,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
@@ -1333,9 +1337,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>63</v>
@@ -1354,9 +1358,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>67</v>
@@ -1375,7 +1379,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1391,17 +1395,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
